--- a/htdocs/App/Controllers/Traspasos/0626FRM.xlsx
+++ b/htdocs/App/Controllers/Traspasos/0626FRM.xlsx
@@ -31,7 +31,7 @@
     <t>Fecha Entrada</t>
   </si>
   <si>
-    <t>06-11-2017</t>
+    <t>20-11-2017</t>
   </si>
   <si>
     <t>Atendido por:</t>
@@ -91,10 +91,10 @@
     <t>Comprador:</t>
   </si>
   <si>
-    <t>IVAN LEAL</t>
-  </si>
-  <si>
-    <t>ivannovich@hotmail.com</t>
+    <t>SALVADOR RUIZ</t>
+  </si>
+  <si>
+    <t>No disponible</t>
   </si>
   <si>
     <t>TOTAL PRESUPUESTO</t>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="C23" s="45"/>
       <c r="D23" s="57">
-        <v>660299725</v>
+        <v>677236260</v>
       </c>
       <c r="E23" s="57"/>
       <c r="F23" s="57"/>
